--- a/docs/QALEs and costs.xlsx
+++ b/docs/QALEs and costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRVING\Documents\GitHub\Cov_19_specific_hazard\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8096883C-B3BA-4AD9-B56F-48E899187C09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BFE0E4-CC11-4CFE-BFFB-F2AD0A44E4F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9336" xr2:uid="{D9519B74-C54A-4B69-AE90-1225DE966130}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
   <si>
     <t>Edad</t>
   </si>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F32DB2-D8F9-4833-B39A-CBAAD2649A1A}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,16 +419,16 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>13.04</v>
+        <v>13.458589999999999</v>
       </c>
       <c r="C2">
-        <v>13.806699999999999</v>
+        <v>14.24912</v>
       </c>
       <c r="D2">
-        <v>177433.4</v>
+        <v>177438.7</v>
       </c>
       <c r="E2">
-        <v>187852.3</v>
+        <v>187860.9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -436,16 +436,16 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>12.9095</v>
+        <v>13.322850000000001</v>
       </c>
       <c r="C3">
-        <v>13.6401</v>
+        <v>14.07719</v>
       </c>
       <c r="D3">
-        <v>175644.79999999999</v>
+        <v>175649</v>
       </c>
       <c r="E3">
-        <v>185585</v>
+        <v>185594.3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -453,16 +453,16 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>12.74558</v>
+        <v>13.153700000000001</v>
       </c>
       <c r="C4">
-        <v>13.5205</v>
+        <v>13.954090000000001</v>
       </c>
       <c r="D4">
-        <v>173413.9</v>
+        <v>173418.9</v>
       </c>
       <c r="E4">
-        <v>183958</v>
+        <v>183971.4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -470,16 +470,16 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>12.572800000000001</v>
+        <v>12.97555</v>
       </c>
       <c r="C5">
-        <v>13.34</v>
+        <v>13.77215</v>
       </c>
       <c r="D5">
-        <v>171064</v>
+        <v>171070.2</v>
       </c>
       <c r="E5">
-        <v>181561</v>
+        <v>181572.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -487,16 +487,16 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>12.37628</v>
+        <v>12.7727</v>
       </c>
       <c r="C6">
-        <v>13.1425</v>
+        <v>13.56381</v>
       </c>
       <c r="D6">
-        <v>168389.2</v>
+        <v>168395.8</v>
       </c>
       <c r="E6">
-        <v>178815.2</v>
+        <v>178825.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -504,16 +504,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>12.129490000000001</v>
+        <v>12.12992</v>
       </c>
       <c r="C7">
-        <v>12.900829999999999</v>
+        <v>12.90169</v>
       </c>
       <c r="D7">
-        <v>165423.5</v>
+        <v>165429.4</v>
       </c>
       <c r="E7">
-        <v>175943.1</v>
+        <v>175954.9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -521,16 +521,16 @@
         <v>51</v>
       </c>
       <c r="B8">
-        <v>11.96036</v>
+        <v>11.961029999999999</v>
       </c>
       <c r="C8">
-        <v>12.773860000000001</v>
+        <v>12.774699999999999</v>
       </c>
       <c r="D8">
-        <v>163116.9</v>
+        <v>163126</v>
       </c>
       <c r="E8">
-        <v>174211.5</v>
+        <v>174223</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -538,16 +538,16 @@
         <v>52</v>
       </c>
       <c r="B9">
-        <v>11.73226</v>
+        <v>11.73279</v>
       </c>
       <c r="C9">
-        <v>12.578099999999999</v>
+        <v>12.57891</v>
       </c>
       <c r="D9">
-        <v>160006.1</v>
+        <v>160013.20000000001</v>
       </c>
       <c r="E9">
-        <v>171541.7</v>
+        <v>171552.7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -555,16 +555,16 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>11.54386</v>
+        <v>11.54444</v>
       </c>
       <c r="C10">
-        <v>12.37764</v>
+        <v>12.37847</v>
       </c>
       <c r="D10">
-        <v>157436.6</v>
+        <v>157444.5</v>
       </c>
       <c r="E10">
-        <v>168807.8</v>
+        <v>168819.1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -572,16 +572,16 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <v>11.314</v>
+        <v>11.314640000000001</v>
       </c>
       <c r="C11">
-        <v>12.168189999999999</v>
+        <v>12.169320000000001</v>
       </c>
       <c r="D11">
-        <v>154301.79999999999</v>
+        <v>154310.39999999999</v>
       </c>
       <c r="E11">
-        <v>165951.29999999999</v>
+        <v>165966.70000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,16 +589,16 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>11.125260000000001</v>
+        <v>11.12588</v>
       </c>
       <c r="C12">
-        <v>11.97791</v>
+        <v>11.97926</v>
       </c>
       <c r="D12">
-        <v>151727.6</v>
+        <v>151736.1</v>
       </c>
       <c r="E12">
-        <v>163356.20000000001</v>
+        <v>163374.6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,16 +606,16 @@
         <v>56</v>
       </c>
       <c r="B13">
-        <v>10.92022</v>
+        <v>10.920999999999999</v>
       </c>
       <c r="C13">
-        <v>11.80935</v>
+        <v>11.810549999999999</v>
       </c>
       <c r="D13">
-        <v>148931.20000000001</v>
+        <v>148941.9</v>
       </c>
       <c r="E13">
-        <v>161057.4</v>
+        <v>161073.79999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -623,16 +623,16 @@
         <v>57</v>
       </c>
       <c r="B14">
-        <v>10.75197</v>
+        <v>10.75277</v>
       </c>
       <c r="C14">
-        <v>11.560510000000001</v>
+        <v>11.56157</v>
       </c>
       <c r="D14">
-        <v>146636.70000000001</v>
+        <v>146647.5</v>
       </c>
       <c r="E14">
-        <v>157663.6</v>
+        <v>157678.1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,16 +640,16 @@
         <v>58</v>
       </c>
       <c r="B15">
-        <v>10.48141</v>
+        <v>10.48232</v>
       </c>
       <c r="C15">
-        <v>11.27547</v>
+        <v>11.276759999999999</v>
       </c>
       <c r="D15">
-        <v>142946.70000000001</v>
+        <v>142959.20000000001</v>
       </c>
       <c r="E15">
-        <v>153776.29999999999</v>
+        <v>153793.79999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -657,16 +657,16 @@
         <v>59</v>
       </c>
       <c r="B16">
-        <v>10.32213</v>
+        <v>10.32297</v>
       </c>
       <c r="C16">
-        <v>11.124140000000001</v>
+        <v>11.12529</v>
       </c>
       <c r="D16">
-        <v>140774.5</v>
+        <v>140786</v>
       </c>
       <c r="E16">
-        <v>151712.29999999999</v>
+        <v>151728.1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,16 +674,16 @@
         <v>60</v>
       </c>
       <c r="B17">
-        <v>10.104253</v>
+        <v>9.8773090000000003</v>
       </c>
       <c r="C17">
-        <v>10.656154000000001</v>
+        <v>10.657574</v>
       </c>
       <c r="D17">
-        <v>137803</v>
+        <v>137817.9</v>
       </c>
       <c r="E17">
-        <v>148685.1</v>
+        <v>148704.9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -691,16 +691,16 @@
         <v>61</v>
       </c>
       <c r="B18">
-        <v>9.8854649999999999</v>
+        <v>9.6632499999999997</v>
       </c>
       <c r="C18">
-        <v>10.395932</v>
+        <v>10.397458</v>
       </c>
       <c r="D18">
-        <v>134819.20000000001</v>
+        <v>134831.1</v>
       </c>
       <c r="E18">
-        <v>145054.20000000001</v>
+        <v>145075.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -708,16 +708,16 @@
         <v>62</v>
       </c>
       <c r="B19">
-        <v>9.6605840000000001</v>
+        <v>9.4437259999999998</v>
       </c>
       <c r="C19">
-        <v>10.115708</v>
+        <v>10.117177999999999</v>
       </c>
       <c r="D19">
-        <v>131752.20000000001</v>
+        <v>131768.1</v>
       </c>
       <c r="E19">
-        <v>141144.20000000001</v>
+        <v>141164.70000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,16 +725,16 @@
         <v>63</v>
       </c>
       <c r="B20">
-        <v>9.4528549999999996</v>
+        <v>9.2405849999999994</v>
       </c>
       <c r="C20">
-        <v>9.9288080000000001</v>
+        <v>9.9302080000000004</v>
       </c>
       <c r="D20">
-        <v>128919.2</v>
+        <v>128933.7</v>
       </c>
       <c r="E20">
-        <v>138536.4</v>
+        <v>138556</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -742,16 +742,16 @@
         <v>64</v>
       </c>
       <c r="B21">
-        <v>9.204701</v>
+        <v>8.9981600000000004</v>
       </c>
       <c r="C21">
-        <v>9.7260150000000003</v>
+        <v>9.7279590000000002</v>
       </c>
       <c r="D21">
-        <v>125534.9</v>
+        <v>125551.1</v>
       </c>
       <c r="E21">
-        <v>135706.9</v>
+        <v>135734</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -759,16 +759,16 @@
         <v>65</v>
       </c>
       <c r="B22">
-        <v>8.9621569999999995</v>
+        <v>8.7612109999999994</v>
       </c>
       <c r="C22">
-        <v>9.4859709999999993</v>
+        <v>9.4880049999999994</v>
       </c>
       <c r="D22">
-        <v>122227</v>
+        <v>122245</v>
       </c>
       <c r="E22">
-        <v>132357.5</v>
+        <v>132385.9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -776,16 +776,16 @@
         <v>66</v>
       </c>
       <c r="B23">
-        <v>8.7025279999999992</v>
+        <v>8.5071700000000003</v>
       </c>
       <c r="C23">
-        <v>9.2453579999999995</v>
+        <v>9.2469800000000006</v>
       </c>
       <c r="D23">
-        <v>118686.2</v>
+        <v>118700.3</v>
       </c>
       <c r="E23">
-        <v>129000.3</v>
+        <v>129022.9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,16 +793,16 @@
         <v>67</v>
       </c>
       <c r="B24">
-        <v>8.4140800000000002</v>
+        <v>8.2253089999999993</v>
       </c>
       <c r="C24">
-        <v>9.0151380000000003</v>
+        <v>9.0173719999999999</v>
       </c>
       <c r="D24">
-        <v>114752.3</v>
+        <v>114767.5</v>
       </c>
       <c r="E24">
-        <v>125788</v>
+        <v>125819.2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,16 +810,16 @@
         <v>68</v>
       </c>
       <c r="B25">
-        <v>8.2302060000000008</v>
+        <v>8.0458829999999999</v>
       </c>
       <c r="C25">
-        <v>8.7407000000000004</v>
+        <v>8.7426300000000001</v>
       </c>
       <c r="D25">
-        <v>112244.6</v>
+        <v>112264</v>
       </c>
       <c r="E25">
-        <v>121958.8</v>
+        <v>121985.7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -827,16 +827,16 @@
         <v>69</v>
       </c>
       <c r="B26">
-        <v>8.0183909999999994</v>
+        <v>7.8393009999999999</v>
       </c>
       <c r="C26">
-        <v>8.4699259999999992</v>
+        <v>8.4724839999999997</v>
       </c>
       <c r="D26">
-        <v>109355.8</v>
+        <v>109381.6</v>
       </c>
       <c r="E26">
-        <v>118180.7</v>
+        <v>118216.4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -844,16 +844,16 @@
         <v>70</v>
       </c>
       <c r="B27">
-        <v>7.3242479999999999</v>
+        <v>7.3261380000000003</v>
       </c>
       <c r="C27">
-        <v>7.8738149999999996</v>
+        <v>7.8764849999999997</v>
       </c>
       <c r="D27">
-        <v>106463.97</v>
+        <v>106491.45</v>
       </c>
       <c r="E27">
-        <v>114452.37</v>
+        <v>114491.19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -861,16 +861,16 @@
         <v>71</v>
       </c>
       <c r="B28">
-        <v>7.1301889999999997</v>
+        <v>7.1318770000000002</v>
       </c>
       <c r="C28">
-        <v>7.6253960000000003</v>
+        <v>7.6278790000000001</v>
       </c>
       <c r="D28">
-        <v>103643.16</v>
+        <v>103667.7</v>
       </c>
       <c r="E28">
-        <v>110841.4</v>
+        <v>110877.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -878,16 +878,16 @@
         <v>72</v>
       </c>
       <c r="B29">
-        <v>6.8873049999999996</v>
+        <v>6.8892179999999996</v>
       </c>
       <c r="C29">
-        <v>7.4943759999999999</v>
+        <v>7.4978860000000003</v>
       </c>
       <c r="D29">
-        <v>100112.65</v>
+        <v>100140.45</v>
       </c>
       <c r="E29">
-        <v>108936.93</v>
+        <v>108987.94</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -895,16 +895,16 @@
         <v>73</v>
       </c>
       <c r="B30">
-        <v>6.7073140000000002</v>
+        <v>6.7094009999999997</v>
       </c>
       <c r="C30">
-        <v>7.2620480000000001</v>
+        <v>7.2652700000000001</v>
       </c>
       <c r="D30">
-        <v>97496.33</v>
+        <v>97526.67</v>
       </c>
       <c r="E30">
-        <v>105559.84</v>
+        <v>105606.68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -912,16 +912,16 @@
         <v>74</v>
       </c>
       <c r="B31">
-        <v>6.4596289999999996</v>
+        <v>6.4619540000000004</v>
       </c>
       <c r="C31">
-        <v>6.960318</v>
+        <v>6.9627480000000004</v>
       </c>
       <c r="D31">
-        <v>93896.02</v>
+        <v>93929.81</v>
       </c>
       <c r="E31">
-        <v>101173.94</v>
+        <v>101209.27</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -929,16 +929,16 @@
         <v>75</v>
       </c>
       <c r="B32">
-        <v>6.2643240000000002</v>
+        <v>6.2671229999999998</v>
       </c>
       <c r="C32">
-        <v>6.7706090000000003</v>
+        <v>6.7739799999999999</v>
       </c>
       <c r="D32">
-        <v>91057.11</v>
+        <v>91097.79</v>
       </c>
       <c r="E32">
-        <v>98416.38</v>
+        <v>98465.38</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -946,16 +946,16 @@
         <v>76</v>
       </c>
       <c r="B33">
-        <v>5.9965149999999996</v>
+        <v>5.9993590000000001</v>
       </c>
       <c r="C33">
-        <v>6.4608930000000004</v>
+        <v>6.465179</v>
       </c>
       <c r="D33">
-        <v>87164.28</v>
+        <v>87205.62</v>
       </c>
       <c r="E33">
-        <v>93914.39</v>
+        <v>93976.69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -963,16 +963,16 @@
         <v>77</v>
       </c>
       <c r="B34">
-        <v>5.8436529999999998</v>
+        <v>5.8478060000000003</v>
       </c>
       <c r="C34">
-        <v>6.2256660000000004</v>
+        <v>6.2306530000000002</v>
       </c>
       <c r="D34">
-        <v>84942.3</v>
+        <v>85002.67</v>
       </c>
       <c r="E34">
-        <v>90495.18</v>
+        <v>90567.67</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -980,16 +980,16 @@
         <v>78</v>
       </c>
       <c r="B35">
-        <v>5.6441610000000004</v>
+        <v>5.6486270000000003</v>
       </c>
       <c r="C35">
-        <v>6.0086240000000002</v>
+        <v>6.0126289999999996</v>
       </c>
       <c r="D35">
-        <v>82042.52</v>
+        <v>82107.44</v>
       </c>
       <c r="E35">
-        <v>87340.3</v>
+        <v>87398.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -997,16 +997,16 @@
         <v>79</v>
       </c>
       <c r="B36">
-        <v>5.3659619999999997</v>
+        <v>5.3706779999999998</v>
       </c>
       <c r="C36">
-        <v>5.7127420000000004</v>
+        <v>5.716933</v>
       </c>
       <c r="D36">
-        <v>77998.679999999993</v>
+        <v>78067.23</v>
       </c>
       <c r="E36">
-        <v>83039.41</v>
+        <v>83100.33</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1014,16 +1014,16 @@
         <v>80</v>
       </c>
       <c r="B37">
-        <v>4.7989490000000004</v>
+        <v>4.8031009999999998</v>
       </c>
       <c r="C37">
-        <v>5.1138709999999996</v>
+        <v>5.1190709999999999</v>
       </c>
       <c r="D37">
-        <v>74874.69</v>
+        <v>74939.47</v>
       </c>
       <c r="E37">
-        <v>79788.210000000006</v>
+        <v>79869.34</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1031,16 +1031,16 @@
         <v>81</v>
       </c>
       <c r="B38">
-        <v>4.6348729999999998</v>
+        <v>4.6393940000000002</v>
       </c>
       <c r="C38">
-        <v>4.9303489999999996</v>
+        <v>4.9364559999999997</v>
       </c>
       <c r="D38">
-        <v>72314.720000000001</v>
+        <v>72385.27</v>
       </c>
       <c r="E38">
-        <v>76924.83</v>
+        <v>77020.11</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1048,16 +1048,16 @@
         <v>82</v>
       </c>
       <c r="B39">
-        <v>4.4093159999999996</v>
+        <v>4.4154790000000004</v>
       </c>
       <c r="C39">
-        <v>4.6386000000000003</v>
+        <v>4.6464910000000001</v>
       </c>
       <c r="D39">
-        <v>68795.509999999995</v>
+        <v>68891.679999999993</v>
       </c>
       <c r="E39">
-        <v>72372.87</v>
+        <v>72495.990000000005</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1065,16 +1065,16 @@
         <v>83</v>
       </c>
       <c r="B40">
-        <v>4.2394569999999998</v>
+        <v>4.2454210000000003</v>
       </c>
       <c r="C40">
-        <v>4.454237</v>
+        <v>4.4622529999999996</v>
       </c>
       <c r="D40">
-        <v>66145.320000000007</v>
+        <v>66238.38</v>
       </c>
       <c r="E40">
-        <v>69496.39</v>
+        <v>69621.45</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1082,16 +1082,16 @@
         <v>84</v>
       </c>
       <c r="B41">
-        <v>4.0632289999999998</v>
+        <v>4.0694879999999998</v>
       </c>
       <c r="C41">
-        <v>4.2694380000000001</v>
+        <v>4.2789429999999999</v>
       </c>
       <c r="D41">
-        <v>63395.75</v>
+        <v>63493.41</v>
       </c>
       <c r="E41">
-        <v>66613.100000000006</v>
+        <v>66761.39</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1099,16 +1099,16 @@
         <v>85</v>
       </c>
       <c r="B42">
-        <v>3.8340070000000002</v>
+        <v>3.8415620000000001</v>
       </c>
       <c r="C42">
-        <v>4.0187290000000004</v>
+        <v>4.0282739999999997</v>
       </c>
       <c r="D42">
-        <v>59819.37</v>
+        <v>59937.24</v>
       </c>
       <c r="E42">
-        <v>62701.46</v>
+        <v>62850.38</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1116,16 +1116,16 @@
         <v>86</v>
       </c>
       <c r="B43">
-        <v>3.6721020000000002</v>
+        <v>3.680301</v>
       </c>
       <c r="C43">
-        <v>3.8571230000000001</v>
+        <v>3.8663940000000001</v>
       </c>
       <c r="D43">
-        <v>57293.279999999999</v>
+        <v>57421.19</v>
       </c>
       <c r="E43">
-        <v>60180.03</v>
+        <v>60324.68</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1133,16 +1133,16 @@
         <v>87</v>
       </c>
       <c r="B44">
-        <v>3.4524499999999998</v>
+        <v>3.463409</v>
       </c>
       <c r="C44">
-        <v>3.689238</v>
+        <v>3.7049340000000002</v>
       </c>
       <c r="D44">
-        <v>53866.19</v>
+        <v>54037.18</v>
       </c>
       <c r="E44">
-        <v>57560.639999999999</v>
+        <v>57805.52</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,16 +1150,16 @@
         <v>88</v>
       </c>
       <c r="B45">
-        <v>3.3458239999999999</v>
+        <v>3.361326</v>
       </c>
       <c r="C45">
-        <v>3.468556</v>
+        <v>3.48461</v>
       </c>
       <c r="D45">
-        <v>52202.59</v>
+        <v>52444.45</v>
       </c>
       <c r="E45">
-        <v>54117.48</v>
+        <v>54367.96</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1167,16 +1167,16 @@
         <v>89</v>
       </c>
       <c r="B46">
-        <v>3.1812860000000001</v>
+        <v>3.194947</v>
       </c>
       <c r="C46">
-        <v>3.3222160000000001</v>
+        <v>3.3394300000000001</v>
       </c>
       <c r="D46">
-        <v>49635.4</v>
+        <v>49848.55</v>
       </c>
       <c r="E46">
-        <v>51834.239999999998</v>
+        <v>52102.82</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1184,16 +1184,16 @@
         <v>90</v>
       </c>
       <c r="B47">
-        <v>3.0056919999999998</v>
+        <v>3.0174639999999999</v>
       </c>
       <c r="C47">
-        <v>3.128638</v>
+        <v>3.1448770000000001</v>
       </c>
       <c r="D47">
-        <v>46895.74</v>
+        <v>47079.41</v>
       </c>
       <c r="E47">
-        <v>48813.98</v>
+        <v>49067.35</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1201,16 +1201,16 @@
         <v>91</v>
       </c>
       <c r="B48">
-        <v>2.8417970000000001</v>
+        <v>2.8700369999999999</v>
       </c>
       <c r="C48">
-        <v>2.9625910000000002</v>
+        <v>2.9882979999999999</v>
       </c>
       <c r="D48">
-        <v>44338.6</v>
+        <v>44779.21</v>
       </c>
       <c r="E48">
-        <v>46223.26</v>
+        <v>46624.34</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1218,16 +1218,16 @@
         <v>92</v>
       </c>
       <c r="B49">
-        <v>2.7303540000000002</v>
+        <v>2.7610049999999999</v>
       </c>
       <c r="C49">
-        <v>2.7793009999999998</v>
+        <v>2.8185850000000001</v>
       </c>
       <c r="D49">
-        <v>42599.82</v>
+        <v>43078.06</v>
       </c>
       <c r="E49">
-        <v>43363.519999999997</v>
+        <v>43976.44</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1235,16 +1235,16 @@
         <v>93</v>
       </c>
       <c r="B50">
-        <v>2.6087250000000002</v>
+        <v>2.6405620000000001</v>
       </c>
       <c r="C50">
-        <v>2.7035930000000001</v>
+        <v>2.7480709999999999</v>
       </c>
       <c r="D50">
-        <v>40702.14</v>
+        <v>41198.870000000003</v>
       </c>
       <c r="E50">
-        <v>42182.29</v>
+        <v>42876.25</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1252,16 +1252,16 @@
         <v>94</v>
       </c>
       <c r="B51">
-        <v>2.4488650000000001</v>
+        <v>2.4955229999999999</v>
       </c>
       <c r="C51">
-        <v>2.4840399999999998</v>
+        <v>2.5321050000000001</v>
       </c>
       <c r="D51">
-        <v>38207.96</v>
+        <v>38935.93</v>
       </c>
       <c r="E51">
-        <v>38756.76</v>
+        <v>39506.69</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1269,16 +1269,16 @@
         <v>95</v>
       </c>
       <c r="B52">
-        <v>2.2473109999999998</v>
+        <v>2.346349</v>
       </c>
       <c r="C52">
-        <v>2.30829</v>
+        <v>2.3888419999999999</v>
       </c>
       <c r="D52">
-        <v>35063.24</v>
+        <v>36608.47</v>
       </c>
       <c r="E52">
-        <v>36014.660000000003</v>
+        <v>37271.449999999997</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1286,16 +1286,16 @@
         <v>96</v>
       </c>
       <c r="B53">
-        <v>2.0052759999999998</v>
+        <v>2.083704</v>
       </c>
       <c r="C53">
-        <v>2.1344639999999999</v>
+        <v>2.2728660000000001</v>
       </c>
       <c r="D53">
-        <v>31286.94</v>
+        <v>32510.59</v>
       </c>
       <c r="E53">
-        <v>33302.57</v>
+        <v>35461.96</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,16 +1303,16 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>1.8545879999999999</v>
+        <v>2.0108480000000002</v>
       </c>
       <c r="C54">
-        <v>1.9023509999999999</v>
+        <v>2.0950129999999998</v>
       </c>
       <c r="D54">
-        <v>28935.85</v>
+        <v>31373.87</v>
       </c>
       <c r="E54">
-        <v>29681.08</v>
+        <v>32687.05</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1320,16 +1320,16 @@
         <v>98</v>
       </c>
       <c r="B55">
-        <v>1.547485</v>
+        <v>1.7559389999999999</v>
       </c>
       <c r="C55">
-        <v>1.5537780000000001</v>
+        <v>1.75109</v>
       </c>
       <c r="D55">
-        <v>24144.34</v>
+        <v>27396.7</v>
       </c>
       <c r="E55">
-        <v>24242.52</v>
+        <v>27321.05</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1337,16 +1337,33 @@
         <v>99</v>
       </c>
       <c r="B56">
-        <v>1.1931430000000001</v>
+        <v>1.497905</v>
       </c>
       <c r="C56">
-        <v>1.219991</v>
+        <v>1.521989</v>
       </c>
       <c r="D56">
-        <v>18615.78</v>
+        <v>23370.77</v>
       </c>
       <c r="E56">
-        <v>19034.68</v>
+        <v>23746.54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>100</v>
+      </c>
+      <c r="B57">
+        <v>1.2033020000000001</v>
+      </c>
+      <c r="C57">
+        <v>1.2033020000000001</v>
+      </c>
+      <c r="D57">
+        <v>18774.28</v>
+      </c>
+      <c r="E57">
+        <v>18774.28</v>
       </c>
     </row>
   </sheetData>
@@ -1357,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00FCA9E-6EE7-4971-97A9-9167DB3AF45C}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:AD116"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37:Q46"/>
+    <sheetView topLeftCell="O90" workbookViewId="0">
+      <selection activeCell="Z112" sqref="Z112:Z116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,7 +2374,7 @@
         <v>2.1344639999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:23" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>20</v>
       </c>
@@ -2383,7 +2400,7 @@
         <v>1.9023509999999999</v>
       </c>
     </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:23" x14ac:dyDescent="0.3">
       <c r="K34">
         <v>20</v>
       </c>
@@ -2403,7 +2420,7 @@
         <v>1.5537780000000001</v>
       </c>
     </row>
-    <row r="35" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:23" x14ac:dyDescent="0.3">
       <c r="R35">
         <v>20</v>
       </c>
@@ -2411,7 +2428,7 @@
         <v>1.219991</v>
       </c>
     </row>
-    <row r="36" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:23" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F37">
         <v>1</v>
       </c>
@@ -2447,8 +2464,14 @@
       <c r="Q37">
         <v>7.8738149999999996</v>
       </c>
-    </row>
-    <row r="38" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="T37" t="s">
+        <v>3</v>
+      </c>
+      <c r="W37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>2</v>
       </c>
@@ -2473,8 +2496,20 @@
       <c r="Q38">
         <v>7.6253960000000003</v>
       </c>
-    </row>
-    <row r="39" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>79869.34</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>5.1190709999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>3</v>
       </c>
@@ -2499,8 +2534,20 @@
       <c r="Q39">
         <v>7.4943759999999999</v>
       </c>
-    </row>
-    <row r="40" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>77020.11</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>4.9364559999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>4</v>
       </c>
@@ -2525,8 +2572,20 @@
       <c r="Q40">
         <v>7.2620480000000001</v>
       </c>
-    </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>72495.990000000005</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>4.6464910000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>5</v>
       </c>
@@ -2551,8 +2610,20 @@
       <c r="Q41">
         <v>6.960318</v>
       </c>
-    </row>
-    <row r="42" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>69621.45</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41">
+        <v>4.4622529999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F42">
         <v>6</v>
       </c>
@@ -2577,8 +2648,20 @@
       <c r="Q42">
         <v>6.7706090000000003</v>
       </c>
-    </row>
-    <row r="43" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>66761.39</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+      <c r="W42">
+        <v>4.2789429999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F43">
         <v>7</v>
       </c>
@@ -2603,8 +2686,20 @@
       <c r="Q43">
         <v>6.4608930000000004</v>
       </c>
-    </row>
-    <row r="44" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <v>6</v>
+      </c>
+      <c r="T43">
+        <v>62850.38</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43">
+        <v>4.0282739999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F44">
         <v>8</v>
       </c>
@@ -2629,8 +2724,20 @@
       <c r="Q44">
         <v>6.2256660000000004</v>
       </c>
-    </row>
-    <row r="45" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <v>7</v>
+      </c>
+      <c r="T44">
+        <v>60324.68</v>
+      </c>
+      <c r="V44">
+        <v>7</v>
+      </c>
+      <c r="W44">
+        <v>3.8663940000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F45">
         <v>9</v>
       </c>
@@ -2655,8 +2762,20 @@
       <c r="Q45">
         <v>6.0086240000000002</v>
       </c>
-    </row>
-    <row r="46" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <v>8</v>
+      </c>
+      <c r="T45">
+        <v>57805.52</v>
+      </c>
+      <c r="V45">
+        <v>8</v>
+      </c>
+      <c r="W45">
+        <v>3.7049340000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F46">
         <v>10</v>
       </c>
@@ -2681,8 +2800,1377 @@
       <c r="Q46">
         <v>5.7127420000000004</v>
       </c>
+      <c r="S46">
+        <v>9</v>
+      </c>
+      <c r="T46">
+        <v>54367.96</v>
+      </c>
+      <c r="V46">
+        <v>9</v>
+      </c>
+      <c r="W46">
+        <v>3.48461</v>
+      </c>
+    </row>
+    <row r="47" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47">
+        <v>52102.82</v>
+      </c>
+      <c r="V47">
+        <v>10</v>
+      </c>
+      <c r="W47">
+        <v>3.3394300000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>11</v>
+      </c>
+      <c r="T48">
+        <v>49067.35</v>
+      </c>
+      <c r="V48">
+        <v>11</v>
+      </c>
+      <c r="W48">
+        <v>3.1448770000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>74939.47</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>4.8031009999999998</v>
+      </c>
+      <c r="S49">
+        <v>12</v>
+      </c>
+      <c r="T49">
+        <v>46624.34</v>
+      </c>
+      <c r="V49">
+        <v>12</v>
+      </c>
+      <c r="W49">
+        <v>2.9882979999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>72385.27</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>4.6393940000000002</v>
+      </c>
+      <c r="S50">
+        <v>13</v>
+      </c>
+      <c r="T50">
+        <v>43976.44</v>
+      </c>
+      <c r="V50">
+        <v>13</v>
+      </c>
+      <c r="W50">
+        <v>2.8185850000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>68891.679999999993</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>4.4154790000000004</v>
+      </c>
+      <c r="S51">
+        <v>14</v>
+      </c>
+      <c r="T51">
+        <v>42876.25</v>
+      </c>
+      <c r="V51">
+        <v>14</v>
+      </c>
+      <c r="W51">
+        <v>2.7480709999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>66238.38</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>4.2454210000000003</v>
+      </c>
+      <c r="S52">
+        <v>15</v>
+      </c>
+      <c r="T52">
+        <v>39506.69</v>
+      </c>
+      <c r="V52">
+        <v>15</v>
+      </c>
+      <c r="W52">
+        <v>2.5321050000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>63493.41</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>4.0694879999999998</v>
+      </c>
+      <c r="S53">
+        <v>16</v>
+      </c>
+      <c r="T53">
+        <v>37271.449999999997</v>
+      </c>
+      <c r="V53">
+        <v>16</v>
+      </c>
+      <c r="W53">
+        <v>2.3888419999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>59937.24</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>3.8415620000000001</v>
+      </c>
+      <c r="S54">
+        <v>17</v>
+      </c>
+      <c r="T54">
+        <v>35461.96</v>
+      </c>
+      <c r="V54">
+        <v>17</v>
+      </c>
+      <c r="W54">
+        <v>2.2728660000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <v>57421.19</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>3.680301</v>
+      </c>
+      <c r="S55">
+        <v>18</v>
+      </c>
+      <c r="T55">
+        <v>32687.05</v>
+      </c>
+      <c r="V55">
+        <v>18</v>
+      </c>
+      <c r="W55">
+        <v>2.0950129999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>54037.18</v>
+      </c>
+      <c r="L56">
+        <v>8</v>
+      </c>
+      <c r="M56">
+        <v>3.463409</v>
+      </c>
+      <c r="S56">
+        <v>19</v>
+      </c>
+      <c r="T56">
+        <v>27321.05</v>
+      </c>
+      <c r="V56">
+        <v>19</v>
+      </c>
+      <c r="W56">
+        <v>1.75109</v>
+      </c>
+    </row>
+    <row r="57" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>9</v>
+      </c>
+      <c r="J57">
+        <v>52444.45</v>
+      </c>
+      <c r="L57">
+        <v>9</v>
+      </c>
+      <c r="M57">
+        <v>3.361326</v>
+      </c>
+      <c r="S57">
+        <v>20</v>
+      </c>
+      <c r="T57">
+        <v>23746.54</v>
+      </c>
+      <c r="V57">
+        <v>20</v>
+      </c>
+      <c r="W57">
+        <v>1.521989</v>
+      </c>
+    </row>
+    <row r="58" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>49848.55</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>3.194947</v>
+      </c>
+      <c r="S58">
+        <v>21</v>
+      </c>
+      <c r="T58">
+        <v>18774.28</v>
+      </c>
+      <c r="V58">
+        <v>21</v>
+      </c>
+      <c r="W58">
+        <v>1.2033020000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>11</v>
+      </c>
+      <c r="J59">
+        <v>47079.41</v>
+      </c>
+      <c r="L59">
+        <v>11</v>
+      </c>
+      <c r="M59">
+        <v>3.0174639999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <v>44779.21</v>
+      </c>
+      <c r="L60">
+        <v>12</v>
+      </c>
+      <c r="M60">
+        <v>2.8700369999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>13</v>
+      </c>
+      <c r="J61">
+        <v>43078.06</v>
+      </c>
+      <c r="L61">
+        <v>13</v>
+      </c>
+      <c r="M61">
+        <v>2.7610049999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>14</v>
+      </c>
+      <c r="J62">
+        <v>41198.870000000003</v>
+      </c>
+      <c r="L62">
+        <v>14</v>
+      </c>
+      <c r="M62">
+        <v>2.6405620000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>15</v>
+      </c>
+      <c r="J63">
+        <v>38935.93</v>
+      </c>
+      <c r="L63">
+        <v>15</v>
+      </c>
+      <c r="M63">
+        <v>2.4955229999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>16</v>
+      </c>
+      <c r="J64">
+        <v>36608.47</v>
+      </c>
+      <c r="L64">
+        <v>16</v>
+      </c>
+      <c r="M64">
+        <v>2.346349</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <v>32510.59</v>
+      </c>
+      <c r="L65">
+        <v>17</v>
+      </c>
+      <c r="M65">
+        <v>2.083704</v>
+      </c>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>18</v>
+      </c>
+      <c r="J66">
+        <v>31373.87</v>
+      </c>
+      <c r="L66">
+        <v>18</v>
+      </c>
+      <c r="M66">
+        <v>2.0108480000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>19</v>
+      </c>
+      <c r="J67">
+        <v>27396.7</v>
+      </c>
+      <c r="L67">
+        <v>19</v>
+      </c>
+      <c r="M67">
+        <v>1.7559389999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>20</v>
+      </c>
+      <c r="J68">
+        <v>23370.77</v>
+      </c>
+      <c r="L68">
+        <v>20</v>
+      </c>
+      <c r="M68">
+        <v>1.497905</v>
+      </c>
+    </row>
+    <row r="69" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>21</v>
+      </c>
+      <c r="J69">
+        <v>18774.28</v>
+      </c>
+      <c r="L69">
+        <v>21</v>
+      </c>
+      <c r="M69">
+        <v>1.2033020000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>106491.45</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>7.3261380000000003</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>114491.19</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>7.8764849999999997</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="V87">
+        <v>148704.9</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>103667.7</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>7.1318770000000002</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <v>110877.5</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>7.6278790000000001</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
+        <v>145075.5</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>10.657574</v>
+      </c>
+    </row>
+    <row r="89" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>100140.45</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>6.8892179999999996</v>
+      </c>
+      <c r="O89">
+        <v>3</v>
+      </c>
+      <c r="P89">
+        <v>108987.94</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>7.4978860000000003</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
+        <v>141164.70000000001</v>
+      </c>
+      <c r="X89">
+        <v>2</v>
+      </c>
+      <c r="Y89">
+        <v>10.397458</v>
+      </c>
+    </row>
+    <row r="90" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>97526.67</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>6.7094009999999997</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>105606.68</v>
+      </c>
+      <c r="R90">
+        <v>4</v>
+      </c>
+      <c r="S90">
+        <v>7.2652700000000001</v>
+      </c>
+      <c r="U90">
+        <v>4</v>
+      </c>
+      <c r="V90">
+        <v>138556</v>
+      </c>
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>10.117177999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>5</v>
+      </c>
+      <c r="J91">
+        <v>93929.81</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>6.4619540000000004</v>
+      </c>
+      <c r="O91">
+        <v>5</v>
+      </c>
+      <c r="P91">
+        <v>101209.27</v>
+      </c>
+      <c r="R91">
+        <v>5</v>
+      </c>
+      <c r="S91">
+        <v>6.9627480000000004</v>
+      </c>
+      <c r="U91">
+        <v>5</v>
+      </c>
+      <c r="V91">
+        <v>135734</v>
+      </c>
+      <c r="X91">
+        <v>4</v>
+      </c>
+      <c r="Y91">
+        <v>9.9302080000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92">
+        <v>91097.79</v>
+      </c>
+      <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>6.2671229999999998</v>
+      </c>
+      <c r="O92">
+        <v>6</v>
+      </c>
+      <c r="P92">
+        <v>98465.38</v>
+      </c>
+      <c r="R92">
+        <v>6</v>
+      </c>
+      <c r="S92">
+        <v>6.7739799999999999</v>
+      </c>
+      <c r="U92">
+        <v>6</v>
+      </c>
+      <c r="V92">
+        <v>132385.9</v>
+      </c>
+      <c r="X92">
+        <v>5</v>
+      </c>
+      <c r="Y92">
+        <v>9.7279590000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>7</v>
+      </c>
+      <c r="J93">
+        <v>87205.62</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>5.9993590000000001</v>
+      </c>
+      <c r="O93">
+        <v>7</v>
+      </c>
+      <c r="P93">
+        <v>93976.69</v>
+      </c>
+      <c r="R93">
+        <v>7</v>
+      </c>
+      <c r="S93">
+        <v>6.465179</v>
+      </c>
+      <c r="U93">
+        <v>7</v>
+      </c>
+      <c r="V93">
+        <v>129022.9</v>
+      </c>
+      <c r="X93">
+        <v>6</v>
+      </c>
+      <c r="Y93">
+        <v>9.4880049999999994</v>
+      </c>
+    </row>
+    <row r="94" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>8</v>
+      </c>
+      <c r="J94">
+        <v>85002.67</v>
+      </c>
+      <c r="L94">
+        <v>8</v>
+      </c>
+      <c r="M94">
+        <v>5.8478060000000003</v>
+      </c>
+      <c r="O94">
+        <v>8</v>
+      </c>
+      <c r="P94">
+        <v>90567.67</v>
+      </c>
+      <c r="R94">
+        <v>8</v>
+      </c>
+      <c r="S94">
+        <v>6.2306530000000002</v>
+      </c>
+      <c r="U94">
+        <v>8</v>
+      </c>
+      <c r="V94">
+        <v>125819.2</v>
+      </c>
+      <c r="X94">
+        <v>7</v>
+      </c>
+      <c r="Y94">
+        <v>9.2469800000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>9</v>
+      </c>
+      <c r="J95">
+        <v>82107.44</v>
+      </c>
+      <c r="L95">
+        <v>9</v>
+      </c>
+      <c r="M95">
+        <v>5.6486270000000003</v>
+      </c>
+      <c r="O95">
+        <v>9</v>
+      </c>
+      <c r="P95">
+        <v>87398.5</v>
+      </c>
+      <c r="R95">
+        <v>9</v>
+      </c>
+      <c r="S95">
+        <v>6.0126289999999996</v>
+      </c>
+      <c r="U95">
+        <v>9</v>
+      </c>
+      <c r="V95">
+        <v>121985.7</v>
+      </c>
+      <c r="X95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>9.0173719999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="9:25" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>78067.23</v>
+      </c>
+      <c r="L96">
+        <v>10</v>
+      </c>
+      <c r="M96">
+        <v>5.3706779999999998</v>
+      </c>
+      <c r="O96">
+        <v>10</v>
+      </c>
+      <c r="P96">
+        <v>83100.33</v>
+      </c>
+      <c r="R96">
+        <v>10</v>
+      </c>
+      <c r="S96">
+        <v>5.716933</v>
+      </c>
+      <c r="U96">
+        <v>10</v>
+      </c>
+      <c r="V96">
+        <v>118216.4</v>
+      </c>
+      <c r="X96">
+        <v>9</v>
+      </c>
+      <c r="Y96">
+        <v>8.7426300000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="X97">
+        <v>10</v>
+      </c>
+      <c r="Y97">
+        <v>8.4724839999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="K99" t="s">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>9.8773090000000003</v>
+      </c>
+      <c r="R99" t="s">
+        <v>3</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>12.12992</v>
+      </c>
+      <c r="W99">
+        <v>1</v>
+      </c>
+      <c r="X99">
+        <v>175954.9</v>
+      </c>
+      <c r="Z99">
+        <v>1</v>
+      </c>
+      <c r="AA99">
+        <v>12.90169</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>137817.9</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>9.6632499999999997</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>165429.4</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>11.961029999999999</v>
+      </c>
+      <c r="W100">
+        <v>2</v>
+      </c>
+      <c r="X100">
+        <v>174223</v>
+      </c>
+      <c r="Z100">
+        <v>2</v>
+      </c>
+      <c r="AA100">
+        <v>12.774699999999999</v>
+      </c>
+      <c r="AC100">
+        <v>1</v>
+      </c>
+      <c r="AD100">
+        <v>187860.9</v>
+      </c>
+    </row>
+    <row r="101" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>134831.1</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>9.4437259999999998</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
+        <v>163126</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>11.73279</v>
+      </c>
+      <c r="W101">
+        <v>3</v>
+      </c>
+      <c r="X101">
+        <v>171552.7</v>
+      </c>
+      <c r="Z101">
+        <v>3</v>
+      </c>
+      <c r="AA101">
+        <v>12.57891</v>
+      </c>
+      <c r="AC101">
+        <v>2</v>
+      </c>
+      <c r="AD101">
+        <v>185594.3</v>
+      </c>
+    </row>
+    <row r="102" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>131768.1</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>9.2405849999999994</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>160013.20000000001</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+      <c r="U102">
+        <v>11.54444</v>
+      </c>
+      <c r="W102">
+        <v>4</v>
+      </c>
+      <c r="X102">
+        <v>168819.1</v>
+      </c>
+      <c r="Z102">
+        <v>4</v>
+      </c>
+      <c r="AA102">
+        <v>12.37847</v>
+      </c>
+      <c r="AC102">
+        <v>3</v>
+      </c>
+      <c r="AD102">
+        <v>183971.4</v>
+      </c>
+    </row>
+    <row r="103" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>128933.7</v>
+      </c>
+      <c r="M103">
+        <v>5</v>
+      </c>
+      <c r="N103">
+        <v>8.9981600000000004</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>157444.5</v>
+      </c>
+      <c r="T103">
+        <v>5</v>
+      </c>
+      <c r="U103">
+        <v>11.314640000000001</v>
+      </c>
+      <c r="W103">
+        <v>5</v>
+      </c>
+      <c r="X103">
+        <v>165966.70000000001</v>
+      </c>
+      <c r="Z103">
+        <v>5</v>
+      </c>
+      <c r="AA103">
+        <v>12.169320000000001</v>
+      </c>
+      <c r="AC103">
+        <v>4</v>
+      </c>
+      <c r="AD103">
+        <v>181572.6</v>
+      </c>
+    </row>
+    <row r="104" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J104">
+        <v>5</v>
+      </c>
+      <c r="K104">
+        <v>125551.1</v>
+      </c>
+      <c r="M104">
+        <v>6</v>
+      </c>
+      <c r="N104">
+        <v>8.7612109999999994</v>
+      </c>
+      <c r="Q104">
+        <v>5</v>
+      </c>
+      <c r="R104">
+        <v>154310.39999999999</v>
+      </c>
+      <c r="T104">
+        <v>6</v>
+      </c>
+      <c r="U104">
+        <v>11.12588</v>
+      </c>
+      <c r="W104">
+        <v>6</v>
+      </c>
+      <c r="X104">
+        <v>163374.6</v>
+      </c>
+      <c r="Z104">
+        <v>6</v>
+      </c>
+      <c r="AA104">
+        <v>11.97926</v>
+      </c>
+      <c r="AC104">
+        <v>5</v>
+      </c>
+      <c r="AD104">
+        <v>178825.8</v>
+      </c>
+    </row>
+    <row r="105" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <v>6</v>
+      </c>
+      <c r="K105">
+        <v>122245</v>
+      </c>
+      <c r="M105">
+        <v>7</v>
+      </c>
+      <c r="N105">
+        <v>8.5071700000000003</v>
+      </c>
+      <c r="Q105">
+        <v>6</v>
+      </c>
+      <c r="R105">
+        <v>151736.1</v>
+      </c>
+      <c r="T105">
+        <v>7</v>
+      </c>
+      <c r="U105">
+        <v>10.920999999999999</v>
+      </c>
+      <c r="W105">
+        <v>7</v>
+      </c>
+      <c r="X105">
+        <v>161073.79999999999</v>
+      </c>
+      <c r="Z105">
+        <v>7</v>
+      </c>
+      <c r="AA105">
+        <v>11.810549999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <v>7</v>
+      </c>
+      <c r="K106">
+        <v>118700.3</v>
+      </c>
+      <c r="M106">
+        <v>8</v>
+      </c>
+      <c r="N106">
+        <v>8.2253089999999993</v>
+      </c>
+      <c r="Q106">
+        <v>7</v>
+      </c>
+      <c r="R106">
+        <v>148941.9</v>
+      </c>
+      <c r="T106">
+        <v>8</v>
+      </c>
+      <c r="U106">
+        <v>10.75277</v>
+      </c>
+      <c r="W106">
+        <v>8</v>
+      </c>
+      <c r="X106">
+        <v>157678.1</v>
+      </c>
+      <c r="Z106">
+        <v>8</v>
+      </c>
+      <c r="AA106">
+        <v>11.56157</v>
+      </c>
+    </row>
+    <row r="107" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J107">
+        <v>8</v>
+      </c>
+      <c r="K107">
+        <v>114767.5</v>
+      </c>
+      <c r="M107">
+        <v>9</v>
+      </c>
+      <c r="N107">
+        <v>8.0458829999999999</v>
+      </c>
+      <c r="Q107">
+        <v>8</v>
+      </c>
+      <c r="R107">
+        <v>146647.5</v>
+      </c>
+      <c r="T107">
+        <v>9</v>
+      </c>
+      <c r="U107">
+        <v>10.48232</v>
+      </c>
+      <c r="W107">
+        <v>9</v>
+      </c>
+      <c r="X107">
+        <v>153793.79999999999</v>
+      </c>
+      <c r="Z107">
+        <v>9</v>
+      </c>
+      <c r="AA107">
+        <v>11.276759999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J108">
+        <v>9</v>
+      </c>
+      <c r="K108">
+        <v>112264</v>
+      </c>
+      <c r="M108">
+        <v>10</v>
+      </c>
+      <c r="N108">
+        <v>7.8393009999999999</v>
+      </c>
+      <c r="Q108">
+        <v>9</v>
+      </c>
+      <c r="R108">
+        <v>142959.20000000001</v>
+      </c>
+      <c r="T108">
+        <v>10</v>
+      </c>
+      <c r="U108">
+        <v>10.32297</v>
+      </c>
+      <c r="W108">
+        <v>10</v>
+      </c>
+      <c r="X108">
+        <v>151728.1</v>
+      </c>
+      <c r="Z108">
+        <v>10</v>
+      </c>
+      <c r="AA108">
+        <v>11.12529</v>
+      </c>
+    </row>
+    <row r="109" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="J109">
+        <v>10</v>
+      </c>
+      <c r="K109">
+        <v>109381.6</v>
+      </c>
+      <c r="Q109">
+        <v>10</v>
+      </c>
+      <c r="R109">
+        <v>140786</v>
+      </c>
+    </row>
+    <row r="112" spans="10:30" x14ac:dyDescent="0.3">
+      <c r="S112">
+        <v>1</v>
+      </c>
+      <c r="T112">
+        <v>14.24912</v>
+      </c>
+      <c r="V112">
+        <v>1</v>
+      </c>
+      <c r="W112">
+        <v>177438.7</v>
+      </c>
+      <c r="Y112">
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <v>13.458589999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="19:26" x14ac:dyDescent="0.3">
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>14.07719</v>
+      </c>
+      <c r="V113">
+        <v>2</v>
+      </c>
+      <c r="W113">
+        <v>175649</v>
+      </c>
+      <c r="Y113">
+        <v>2</v>
+      </c>
+      <c r="Z113">
+        <v>13.322850000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="19:26" x14ac:dyDescent="0.3">
+      <c r="S114">
+        <v>3</v>
+      </c>
+      <c r="T114">
+        <v>13.954090000000001</v>
+      </c>
+      <c r="V114">
+        <v>3</v>
+      </c>
+      <c r="W114">
+        <v>173418.9</v>
+      </c>
+      <c r="Y114">
+        <v>3</v>
+      </c>
+      <c r="Z114">
+        <v>13.153700000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="19:26" x14ac:dyDescent="0.3">
+      <c r="S115">
+        <v>4</v>
+      </c>
+      <c r="T115">
+        <v>13.77215</v>
+      </c>
+      <c r="V115">
+        <v>4</v>
+      </c>
+      <c r="W115">
+        <v>171070.2</v>
+      </c>
+      <c r="Y115">
+        <v>4</v>
+      </c>
+      <c r="Z115">
+        <v>12.97555</v>
+      </c>
+    </row>
+    <row r="116" spans="19:26" x14ac:dyDescent="0.3">
+      <c r="S116">
+        <v>5</v>
+      </c>
+      <c r="T116">
+        <v>13.56381</v>
+      </c>
+      <c r="V116">
+        <v>5</v>
+      </c>
+      <c r="W116">
+        <v>168395.8</v>
+      </c>
+      <c r="Y116">
+        <v>5</v>
+      </c>
+      <c r="Z116">
+        <v>12.7727</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>